--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAA410-F51E-1C48-8308-B7DC9D6352B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269352C8-0CCD-4C49-BA44-EF311D60B96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="4" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
     <sheet name="MS BR" sheetId="6" r:id="rId2"/>
     <sheet name="MCTI BR" sheetId="7" r:id="rId3"/>
     <sheet name="ONU" sheetId="8" r:id="rId4"/>
+    <sheet name="UNESCO" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Documento</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>https://sustainabledevelopment.un.org/content/documents/21252030%20Agenda%20for%20Sustainable%20Development%20web.pdf</t>
+  </si>
+  <si>
+    <t>https://unesdoc.unesco.org/ark:/48223/pf0000379949_por.locale=em</t>
   </si>
 </sst>
 </file>
@@ -513,7 +517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D8719D-1EB9-994B-B1DF-60B11ED33D42}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -536,4 +540,33 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B9B10-0428-8842-805D-914CEB411F06}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="115.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{72F0AAED-0E15-BC4A-93F7-205682993971}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269352C8-0CCD-4C49-BA44-EF311D60B96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAC3AE-5B67-D547-B85F-8F3579D8F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="4" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
     <sheet name="MS BR" sheetId="6" r:id="rId2"/>
     <sheet name="MCTI BR" sheetId="7" r:id="rId3"/>
     <sheet name="ONU" sheetId="8" r:id="rId4"/>
-    <sheet name="UNESCO" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Documento</t>
   </si>
@@ -54,9 +53,6 @@
   </si>
   <si>
     <t>https://sustainabledevelopment.un.org/content/documents/21252030%20Agenda%20for%20Sustainable%20Development%20web.pdf</t>
-  </si>
-  <si>
-    <t>https://unesdoc.unesco.org/ark:/48223/pf0000379949_por.locale=em</t>
   </si>
 </sst>
 </file>
@@ -517,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D8719D-1EB9-994B-B1DF-60B11ED33D42}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -540,33 +536,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{414B9B10-0428-8842-805D-914CEB411F06}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="115.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{72F0AAED-0E15-BC4A-93F7-205682993971}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEAC3AE-5B67-D547-B85F-8F3579D8F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD667B-CF13-2247-9953-AA53C1DE4DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="3" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="4" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
     <sheet name="MS BR" sheetId="6" r:id="rId2"/>
     <sheet name="MCTI BR" sheetId="7" r:id="rId3"/>
     <sheet name="ONU" sheetId="8" r:id="rId4"/>
+    <sheet name="WHO" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Documento</t>
   </si>
@@ -53,6 +54,9 @@
   </si>
   <si>
     <t>https://sustainabledevelopment.un.org/content/documents/21252030%20Agenda%20for%20Sustainable%20Development%20web.pdf</t>
+  </si>
+  <si>
+    <t>https://www.who.int/initiatives/rehabilitation-2030</t>
   </si>
 </sst>
 </file>
@@ -513,6 +517,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D8719D-1EB9-994B-B1DF-60B11ED33D42}">
   <dimension ref="A1:A2"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2B521CDF-3C41-0245-8E7E-5F1A6DC20817}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1231FE1-89FB-394F-ADB0-7EB343B10177}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,12 +560,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2B521CDF-3C41-0245-8E7E-5F1A6DC20817}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{BF6B31E5-ED13-A246-A115-B33D9994F3A0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABD667B-CF13-2247-9953-AA53C1DE4DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A274E3-8501-B34B-93A3-9EADFE18A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" activeTab="4" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
+    <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>https://sustainabledevelopment.un.org/content/documents/21252030%20Agenda%20for%20Sustainable%20Development%20web.pdf</t>
   </si>
   <si>
-    <t>https://www.who.int/initiatives/rehabilitation-2030</t>
+    <t>https://cdn.who.int/media/docs/default-source/documents/health-topics/rehabilitation/callforaction2.pdf</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B7759-CC93-FD48-BE5A-1AA908F84475}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -546,11 +546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1231FE1-89FB-394F-ADB0-7EB343B10177}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="122" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">

--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A274E3-8501-B34B-93A3-9EADFE18A723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4684BD8-6D0C-0740-B2E8-1FBDC6A60605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
     <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
-    <sheet name="MS BR" sheetId="6" r:id="rId2"/>
+    <sheet name="MS OPAS" sheetId="6" r:id="rId2"/>
     <sheet name="MCTI BR" sheetId="7" r:id="rId3"/>
     <sheet name="ONU" sheetId="8" r:id="rId4"/>
     <sheet name="WHO" sheetId="9" r:id="rId5"/>
@@ -47,9 +47,6 @@
     <t>https://www.saude.rj.gov.br/comum/code/MostrarArquivo.php?C=NTIyNjQ%2C</t>
   </si>
   <si>
-    <t>https://bvsms.saude.gov.br/bvs/publicacoes/agenda_prioridades_pesquisa_ms.pdf</t>
-  </si>
-  <si>
     <t>https://www.in.gov.br/en/web/dou/-/portaria-mcti-n-5.109-de-16-de-agosto-de-2021-338589059</t>
   </si>
   <si>
@@ -57,6 +54,9 @@
   </si>
   <si>
     <t>https://cdn.who.int/media/docs/default-source/documents/health-topics/rehabilitation/callforaction2.pdf</t>
+  </si>
+  <si>
+    <t>https://iris.paho.org/bitstream/handle/10665.2/57798/OPASBRA230009_por.pdf</t>
   </si>
 </sst>
 </file>
@@ -473,12 +473,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3A594030-965A-2646-921C-C29DBA7B55A9}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{FFD76CC6-8473-4745-98FC-91801E31D51C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -531,7 +531,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,23 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4684BD8-6D0C-0740-B2E8-1FBDC6A60605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC421CE-0E88-6D4D-8F18-45D397498F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
   <sheets>
-    <sheet name="AEPSES RJ" sheetId="5" r:id="rId1"/>
-    <sheet name="MS OPAS" sheetId="6" r:id="rId2"/>
-    <sheet name="MCTI BR" sheetId="7" r:id="rId3"/>
-    <sheet name="ONU" sheetId="8" r:id="rId4"/>
-    <sheet name="WHO" sheetId="9" r:id="rId5"/>
+    <sheet name="Agendas" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Documento</t>
   </si>
@@ -50,13 +46,67 @@
     <t>https://www.in.gov.br/en/web/dou/-/portaria-mcti-n-5.109-de-16-de-agosto-de-2021-338589059</t>
   </si>
   <si>
-    <t>https://sustainabledevelopment.un.org/content/documents/21252030%20Agenda%20for%20Sustainable%20Development%20web.pdf</t>
-  </si>
-  <si>
     <t>https://cdn.who.int/media/docs/default-source/documents/health-topics/rehabilitation/callforaction2.pdf</t>
   </si>
   <si>
-    <t>https://iris.paho.org/bitstream/handle/10665.2/57798/OPASBRA230009_por.pdf</t>
+    <t>https://iris.paho.org/server/api/core/bitstreams/5aa0a678-21be-4234-af52-4c32f61cd704/content</t>
+  </si>
+  <si>
+    <t>https://sdgs.un.org/goals</t>
+  </si>
+  <si>
+    <t>Abrir</t>
+  </si>
+  <si>
+    <t>Agência</t>
+  </si>
+  <si>
+    <t>Sustainable Development Goals</t>
+  </si>
+  <si>
+    <t>Ministério da Ciência, Tecnologia e Inovações</t>
+  </si>
+  <si>
+    <t>Prioridades de projetos de pesquisa, de desenvolvimento de tecnologias e inovações</t>
+  </si>
+  <si>
+    <t>Organização Pan-Americana de Saúde</t>
+  </si>
+  <si>
+    <t>Organização das Nações Unidas</t>
+  </si>
+  <si>
+    <t>Organização Mundial de Saúde</t>
+  </si>
+  <si>
+    <t>Período</t>
+  </si>
+  <si>
+    <t>2022-2027</t>
+  </si>
+  <si>
+    <t>Rehabilitation 2030: A Call for Action</t>
+  </si>
+  <si>
+    <t>2017-2030</t>
+  </si>
+  <si>
+    <t>2015-2030</t>
+  </si>
+  <si>
+    <t>Estratégia de cooperação do país</t>
+  </si>
+  <si>
+    <t>2021-2023</t>
+  </si>
+  <si>
+    <t>Agenda Estratégica de Pesquisa</t>
+  </si>
+  <si>
+    <t>Secretaria de Estado de Saúde do Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>2022-2023</t>
   </si>
 </sst>
 </file>
@@ -132,9 +182,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +222,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +328,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,152 +470,116 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F7B7759-CC93-FD48-BE5A-1AA908F84475}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57483A5-AD19-4044-AC8A-937A31BA4E28}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8050CF32-8205-CF4A-9B65-65B62B8644BD}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1BADDDE-942B-4F44-B19E-D83943C410A8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="68.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{FFD76CC6-8473-4745-98FC-91801E31D51C}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C0B5FE-B58A-654A-9969-0E6EE6CEA8AA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1B87B65C-0B4C-7C44-901A-F36BDF7200A7}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D8719D-1EB9-994B-B1DF-60B11ED33D42}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="84" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2B521CDF-3C41-0245-8E7E-5F1A6DC20817}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1231FE1-89FB-394F-ADB0-7EB343B10177}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="122" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{BF6B31E5-ED13-A246-A115-B33D9994F3A0}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{A32B3E1A-44E1-154A-911E-37E2C2699DDA}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{2B521CDF-3C41-0245-8E7E-5F1A6DC20817}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{9E0048FF-364B-4F47-B826-652B000C5B53}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{996EBDA4-A466-F74F-9E53-063040DAE49D}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{37E04941-0EDB-6D46-A50D-3C3A55C0F462}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Agendas de Pesquisa.xlsx
+++ b/PPG/Agendas de Pesquisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC421CE-0E88-6D4D-8F18-45D397498F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8059D588-B17D-7240-83E5-21B8AA837AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{D63A89C5-1CF9-944C-B99E-829D01D159A4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Documento</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t>2022-2023</t>
+  </si>
+  <si>
+    <t>2023-Atual</t>
+  </si>
+  <si>
+    <t>Agenda Nacional para a Formação de Pessoal de Nível Superior</t>
+  </si>
+  <si>
+    <t>https://agendanacional.capes.gov.br/assets/book/book.pdf</t>
+  </si>
+  <si>
+    <t>Coordenação de Aperfeiçoamento de Pessoal de Nível Superior</t>
   </si>
 </sst>
 </file>
@@ -478,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57483A5-AD19-4044-AC8A-937A31BA4E28}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -573,6 +585,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{A32B3E1A-44E1-154A-911E-37E2C2699DDA}"/>
@@ -580,6 +606,7 @@
     <hyperlink ref="D5" r:id="rId3" xr:uid="{9E0048FF-364B-4F47-B826-652B000C5B53}"/>
     <hyperlink ref="D3" r:id="rId4" xr:uid="{996EBDA4-A466-F74F-9E53-063040DAE49D}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{37E04941-0EDB-6D46-A50D-3C3A55C0F462}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{1271E09A-CE50-7044-9AC8-ACBABDC0D5C2}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
